--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -451,631 +451,851 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>240022</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>华宝资源优选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>85.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5525</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001408</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信鑫丰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信鑫丰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>86.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>4.90</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000916</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源股息率100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>510170</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安上证大宗商品股票ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001408</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信鑫丰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002141</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>建信鑫丰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005445</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华宝价值发现混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004205</t>
+          <t>512400</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方支柱产业灵活配置混合</t>
+          <t>南方中证申万有色金属ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>58.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006354</t>
+          <t>000594</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰民裕进取灵活配置混合</t>
+          <t>大摩进取优选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007016</t>
+          <t>160221</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国睿泽回报混合</t>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.23</t>
+          <t>26.68</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>512400</t>
+          <t>165520</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方中证申万有色金属ETF</t>
+          <t>中信保诚中证800 有色指数（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>99.31</t>
+          <t>14.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>165520</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.61</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000594</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大摩进取优选股票</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>007016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+          <t>富国睿泽回报混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001121</t>
+          <t>010403</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+          <t>华商景气优选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>510410</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>博时上证自然资源ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>96.15</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>510410</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时上证自然资源ETF</t>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.59</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>001121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1490,25 +1850,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>160221</t>
+          <t>004205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
+          <t>东方支柱产业灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160620</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>92.34</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>006354</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>国泰民裕进取灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>43.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2113,4 +2114,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1635</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6980</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6945</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5263</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2992</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>206013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华宏观灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3234,4 +3235,1466 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4094</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3356</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0407</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7291</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0737</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6772</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5528</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2982</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8942</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8357</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7273</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4648</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4697,4 +4698,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4706,7 +4707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4717,17 +4718,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4737,14 +4758,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.17</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3492</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4753,14 +4796,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.32</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0855</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4769,14 +4834,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.94</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2133</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4785,13 +4872,1975 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6781</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9690</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9009</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8920</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8410</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>51.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>51.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001797</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华融新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6739,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6750,17 +6751,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6770,14 +6791,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.8</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -6786,14 +6829,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.17</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0994</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6802,14 +6867,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.32</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6818,14 +6905,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.94</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2379</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -6834,13 +6943,1117 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1451</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5827</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5823</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3291</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>28.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7936,7 +7937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7947,17 +7948,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7967,14 +7988,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.38</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2712</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7983,14 +8026,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.8</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7999,14 +8064,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.17</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8865</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8015,14 +8102,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>28</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.32</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6264</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -8031,14 +8140,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.94</v>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4783</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -8047,13 +8178,563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5.97</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>14.38</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>27.8</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>27.17</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>11.32</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>5.94</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.01</v>
       </c>
     </row>
@@ -600,6 +617,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1263,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2459,7 +2758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4491,7 +4790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5953,7 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7073,7 +7372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7889,7 +8188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600219-南山铝业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>5.97</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>14.38</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>27.8</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>27.17</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>11.32</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>5.94</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,884 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝多策略增长</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5525</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001408</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信鑫丰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002141</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信鑫丰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝价值发现混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1488,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6729</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7800</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5259</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -898,7 +2243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1562,7 +2907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2758,7 +4103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4790,7 +6135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6252,7 +7597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7372,7 +8717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8186,858 +9531,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1946</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001186</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国文体健康股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9016</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6962</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>240022</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5683</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>240005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华宝多策略增长</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.27</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5525</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2394</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1715</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1636</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0955</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001408</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信鑫丰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0725</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002141</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信鑫丰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>20.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0724</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005445</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝价值发现混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.33</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004350</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇丰晋信价值先锋股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0442</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0337</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0319</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>510170</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国联安上证大宗商品股票ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0306</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000916</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>前海开源股息率100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011125</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国文体健康股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0176</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>